--- a/PAGER-COV2/VIRUS_TOTAL_HUMAN_HOST_PPI_332.xlsx
+++ b/PAGER-COV2/VIRUS_TOTAL_HUMAN_HOST_PPI_332.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naruto/Desktop/PAGER-COV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D40F696D-13C1-3A4F-B587-5B3CE4710924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29938F58-344E-F148-BDA1-D4C4977EA447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2540" windowWidth="33600" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="2040" windowWidth="33600" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VIRUS_HUMAN_PPI" sheetId="1" r:id="rId1"/>
-    <sheet name="VIRUS_DRUGGABLE_TARGETS_PPI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="123">
   <si>
     <t>Title</t>
   </si>
@@ -34,27 +33,15 @@
     <t>Description</t>
   </si>
   <si>
-    <t>List of gene symbols</t>
-  </si>
-  <si>
     <t>Literature Citation</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
     <t>Literature curation</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>https://msystems.asm.org/content/5/2/e00297-20</t>
-  </si>
-  <si>
     <t>Category (PAG)</t>
   </si>
   <si>
@@ -67,9 +54,6 @@
     <t>Nsp1 human protein interaction partners</t>
   </si>
   <si>
-    <t>List of Nsp2 drug target</t>
-  </si>
-  <si>
     <t>PKP2, COLGALT1, PRIM2, PRIM1, POLA1, POLA2, PKP2, EIF4E2, FKBP15</t>
   </si>
   <si>
@@ -671,13 +655,103 @@
   </si>
   <si>
     <t>Published</t>
+  </si>
+  <si>
+    <t>Geneset ID</t>
+  </si>
+  <si>
+    <t>V_H_1</t>
+  </si>
+  <si>
+    <t>V_H_2</t>
+  </si>
+  <si>
+    <t>V_H_3</t>
+  </si>
+  <si>
+    <t>V_H_4</t>
+  </si>
+  <si>
+    <t>V_H_5</t>
+  </si>
+  <si>
+    <t>V_H_6</t>
+  </si>
+  <si>
+    <t>V_H_7</t>
+  </si>
+  <si>
+    <t>V_H_8</t>
+  </si>
+  <si>
+    <t>V_H_9</t>
+  </si>
+  <si>
+    <t>V_H_10</t>
+  </si>
+  <si>
+    <t>V_H_11</t>
+  </si>
+  <si>
+    <t>V_H_12</t>
+  </si>
+  <si>
+    <t>V_H_13</t>
+  </si>
+  <si>
+    <t>V_H_14</t>
+  </si>
+  <si>
+    <t>V_H_15</t>
+  </si>
+  <si>
+    <t>V_H_16</t>
+  </si>
+  <si>
+    <t>V_H_17</t>
+  </si>
+  <si>
+    <t>V_H_18</t>
+  </si>
+  <si>
+    <t>V_H_19</t>
+  </si>
+  <si>
+    <t>V_H_20</t>
+  </si>
+  <si>
+    <t>V_H_21</t>
+  </si>
+  <si>
+    <t>V_H_22</t>
+  </si>
+  <si>
+    <t>V_H_23</t>
+  </si>
+  <si>
+    <t>V_H_24</t>
+  </si>
+  <si>
+    <t>V_H_25</t>
+  </si>
+  <si>
+    <t>V_H_26</t>
+  </si>
+  <si>
+    <t>V_H_27</t>
+  </si>
+  <si>
+    <t>Publication Status</t>
+  </si>
+  <si>
+    <t>Gene List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +783,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -731,12 +811,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1026,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1043,819 +1122,904 @@
     <col min="10" max="10" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="5">
+        <v>43941</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="F28" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" t="s">
-        <v>59</v>
-      </c>
       <c r="G28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I3:I28" r:id="rId2" display="A SARS-CoV-2-Human Protein-Protein Interaction Map Reveals Drug Targets and Potential Drug-Repurposing (pre-print)" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -1863,63 +2027,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>6.5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>